--- a/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
+++ b/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>O usuário tem a opção de fechar o software. Ao fechar o software, se deve ter garantia que nenhum dado seja perdido</t>
+  </si>
+  <si>
+    <t>Deverá ser possível cadastrar outro administrador. Sempre haverá no mínimo um administrador padrão</t>
+  </si>
+  <si>
+    <t>Criar Model Administrador</t>
+  </si>
+  <si>
+    <t>Criar tela cadastro Adm</t>
+  </si>
+  <si>
+    <t>Criar Controller cadastro Adm</t>
   </si>
 </sst>
 </file>
@@ -623,14 +635,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,13 +683,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,12 +699,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4427,28 +4439,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.625</c:v>
+                  <c:v>13.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.25</c:v>
+                  <c:v>11.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.875</c:v>
+                  <c:v>9.6875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.125</c:v>
+                  <c:v>5.8125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.75</c:v>
+                  <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.375</c:v>
+                  <c:v>1.9375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4560,31 +4572,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.17</c:v>
+                  <c:v>12.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2699999999999996</c:v>
+                  <c:v>8.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3299999999999992</c:v>
+                  <c:v>5.8299999999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.620000000000001</c:v>
+                  <c:v>2.879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.620000000000001</c:v>
+                  <c:v>-3.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.620000000000001</c:v>
+                  <c:v>-7.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.620000000000001</c:v>
+                  <c:v>-11.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.62</c:v>
+                  <c:v>-17.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6171,7 +6183,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6262,7 +6273,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6307,7 +6317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6755,7 +6764,7 @@
   <dimension ref="A1:AB1048537"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6888,7 +6897,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -6900,12 +6909,12 @@
       <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="37">
         <f>SUM(D4:D6)</f>
         <v>3.5</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="38">
+      <c r="G4" s="39">
         <f>SUM(F4:F6)</f>
         <v>0</v>
       </c>
@@ -6932,7 +6941,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="25" t="s">
         <v>65</v>
       </c>
@@ -6942,9 +6951,9 @@
       <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="39"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="21" t="s">
         <v>10</v>
       </c>
@@ -6969,7 +6978,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
@@ -6979,9 +6988,9 @@
       <c r="D6" s="26">
         <v>1.5</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="21" t="s">
         <v>10</v>
       </c>
@@ -7005,7 +7014,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -7017,12 +7026,12 @@
       <c r="D7" s="28">
         <v>3</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="34">
         <f>SUM(D7:D9)</f>
         <v>7.5</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="33">
+      <c r="G7" s="34">
         <f>SUM(F7:F9)</f>
         <v>0</v>
       </c>
@@ -7031,7 +7040,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="29" t="s">
         <v>68</v>
       </c>
@@ -7041,16 +7050,16 @@
       <c r="D8" s="28">
         <v>0.5</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="33" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -7059,10 +7068,72 @@
       <c r="D9" s="28">
         <v>4</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="34">
+        <f>SUM(D10:D12)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="34">
+        <f>SUM(F10:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="28">
+        <v>2</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="28">
+        <v>2</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7072,7 +7143,10 @@
     <row r="1048536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="G10:G12"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A1:H1"/>
@@ -7134,20 +7208,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -7206,40 +7280,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="44" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -7251,18 +7325,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -7277,35 +7351,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>9.625</v>
+        <v>13.5625</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>8.25</v>
+        <v>11.625</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>6.875</v>
+        <v>9.6875</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>7.75</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>4.125</v>
+        <v>5.8125</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>2.75</v>
+        <v>3.875</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>1.375</v>
+        <v>1.9375</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -7313,11 +7387,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>38.5</v>
+        <v>54.25</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>4.8125</v>
+        <v>6.78125</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7333,47 +7407,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>8.17</v>
+        <v>12.67</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>4.2699999999999996</v>
+        <v>8.77</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>1.3299999999999992</v>
+        <v>5.8299999999999992</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>-1.620000000000001</v>
+        <v>2.879999999999999</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>-7.620000000000001</v>
+        <v>-3.120000000000001</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>-11.620000000000001</v>
+        <v>-7.120000000000001</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>-15.620000000000001</v>
+        <v>-11.120000000000001</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-21.62</v>
+        <v>-17.12</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>-44.330000000000005</v>
+        <v>-8.330000000000009</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>-5.5412500000000007</v>
+        <v>-1.0412500000000011</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7411,18 +7485,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -7437,7 +7511,7 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>1.375</v>
+        <v>1.9375</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -8722,20 +8796,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -8794,10 +8868,10 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -8809,25 +8883,25 @@
       <c r="E3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="44" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -8839,8 +8913,8 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -8849,8 +8923,8 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -8998,18 +9072,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -9098,18 +9172,18 @@
         <v>9.375E-2</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="14">
         <v>0.83</v>
       </c>
@@ -9137,10 +9211,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
@@ -9168,10 +9242,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="14">
         <v>1.25</v>
       </c>
@@ -9191,18 +9265,18 @@
         <v>0.15625</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14">
@@ -9230,10 +9304,10 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14">
@@ -9253,18 +9327,18 @@
         <v>0.19875000000000001</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14">
         <v>3.4</v>
@@ -9284,8 +9358,8 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -9316,10 +9390,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -9340,10 +9414,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -9364,10 +9438,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -9388,10 +9462,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -9412,10 +9486,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -9436,10 +9510,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -9460,12 +9534,12 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9473,17 +9547,17 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9496,18 +9570,18 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L10 C24:L96 C19:L21 A19:B19 C13:L13 C15:L16">
     <cfRule type="expression" dxfId="47" priority="37">
@@ -9699,20 +9773,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -9771,10 +9845,10 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -9786,25 +9860,25 @@
       <c r="E3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="44" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -9816,8 +9890,8 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -9826,8 +9900,8 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -9975,18 +10049,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10052,10 +10126,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10083,10 +10157,10 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14">
         <v>0.5</v>
@@ -10114,10 +10188,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
@@ -10145,10 +10219,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10176,10 +10250,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="23"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -10200,10 +10274,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -10224,10 +10298,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -10248,10 +10322,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -10277,15 +10351,6 @@
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -10300,6 +10365,15 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:L13 A18:L94">
     <cfRule type="expression" dxfId="12" priority="10">
@@ -10366,20 +10440,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -10438,10 +10512,10 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42">
+      <c r="A3" s="43">
         <v>8</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -10453,25 +10527,25 @@
       <c r="E3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="44" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -10483,8 +10557,8 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -10493,8 +10567,8 @@
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -10643,18 +10717,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10720,8 +10794,8 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10747,8 +10821,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -10774,8 +10848,8 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -10801,8 +10875,8 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10833,11 +10907,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -10852,6 +10921,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="4" priority="2">

--- a/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
+++ b/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Criar Controller cadastro Adm</t>
+  </si>
+  <si>
+    <t>Criar classe Sessao</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,14 +641,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,10 +689,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -699,13 +708,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4439,28 +4460,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.5625</c:v>
+                  <c:v>14.4375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.625</c:v>
+                  <c:v>12.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6875</c:v>
+                  <c:v>10.3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.75</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8125</c:v>
+                  <c:v>6.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.875</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9375</c:v>
+                  <c:v>2.0625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4572,31 +4593,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.67</c:v>
+                  <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.77</c:v>
+                  <c:v>9.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8299999999999992</c:v>
+                  <c:v>6.8299999999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.879999999999999</c:v>
+                  <c:v>3.879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.120000000000001</c:v>
+                  <c:v>-2.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.120000000000001</c:v>
+                  <c:v>-6.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.120000000000001</c:v>
+                  <c:v>-10.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-17.12</c:v>
+                  <c:v>-16.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6761,10 +6782,10 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB1048537"/>
+  <dimension ref="A1:AB1048538"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6781,16 +6802,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6815,27 +6836,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="37">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -6859,9 +6880,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="30" t="s">
         <v>8</v>
       </c>
@@ -6874,8 +6895,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6897,7 +6918,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="58" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -6909,12 +6930,12 @@
       <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="38">
         <f>SUM(D4:D6)</f>
         <v>3.5</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="39">
+      <c r="G4" s="40">
         <f>SUM(F4:F6)</f>
         <v>0</v>
       </c>
@@ -6941,7 +6962,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="25" t="s">
         <v>65</v>
       </c>
@@ -6951,9 +6972,9 @@
       <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="21" t="s">
         <v>10</v>
       </c>
@@ -6978,7 +6999,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
@@ -6988,9 +7009,9 @@
       <c r="D6" s="26">
         <v>1.5</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="40"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="21" t="s">
         <v>10</v>
       </c>
@@ -7013,116 +7034,132 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>71</v>
-      </c>
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="60"/>
       <c r="B7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="28">
-        <v>3</v>
-      </c>
-      <c r="E7" s="34">
-        <f>SUM(D7:D9)</f>
-        <v>7.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E7" s="61"/>
       <c r="F7" s="28"/>
-      <c r="G7" s="34">
-        <f>SUM(F7:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="21"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35" t="s">
+        <v>71</v>
+      </c>
       <c r="B8" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="36">
+        <f>SUM(D8:D10)</f>
+        <v>7.5</v>
+      </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="36">
+        <f>SUM(F8:F10)</f>
+        <v>0</v>
+      </c>
       <c r="H8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33" t="s">
-        <v>69</v>
+    <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="28">
-        <v>4</v>
-      </c>
-      <c r="E9" s="34"/>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="36"/>
       <c r="F9" s="28"/>
-      <c r="G9" s="34"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>73</v>
+    <row r="10" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="34">
-        <f>SUM(D10:D12)</f>
-        <v>4.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E10" s="36"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="34">
-        <f>SUM(F10:F12)</f>
-        <v>0</v>
-      </c>
+      <c r="G10" s="36"/>
       <c r="H10" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="B11" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="28">
-        <v>2</v>
-      </c>
-      <c r="E11" s="34"/>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="36">
+        <f>SUM(D11:D13)</f>
+        <v>4.5</v>
+      </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="36">
+        <f>SUM(F11:F13)</f>
+        <v>0</v>
+      </c>
       <c r="H11" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="33" t="s">
-        <v>74</v>
+      <c r="A12" s="35"/>
+      <c r="B12" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>25</v>
@@ -7130,25 +7167,38 @@
       <c r="D12" s="28">
         <v>2</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1048533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="28">
+        <v>2</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="1048534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -7156,11 +7206,16 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G4:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
     <cfRule type="expression" dxfId="252" priority="2">
@@ -7173,7 +7228,7 @@
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E7 G7 E4" formulaRange="1"/>
+    <ignoredError sqref="E8 G8 E4" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7208,20 +7263,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -7280,40 +7335,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <v>8</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -7325,18 +7380,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -7351,35 +7406,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>13.5625</v>
+        <v>14.4375</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>11.625</v>
+        <v>12.375</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>9.6875</v>
+        <v>10.3125</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>5.8125</v>
+        <v>6.1875</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>3.875</v>
+        <v>4.125</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>1.9375</v>
+        <v>2.0625</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -7387,11 +7442,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>54.25</v>
+        <v>57.75</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>6.78125</v>
+        <v>7.21875</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7407,47 +7462,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>12.67</v>
+        <v>13.67</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>8.77</v>
+        <v>9.77</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>5.8299999999999992</v>
+        <v>6.8299999999999992</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>2.879999999999999</v>
+        <v>3.879999999999999</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>-3.120000000000001</v>
+        <v>-2.120000000000001</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>-7.120000000000001</v>
+        <v>-6.120000000000001</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>-11.120000000000001</v>
+        <v>-10.120000000000001</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-17.12</v>
+        <v>-16.12</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>-8.330000000000009</v>
+        <v>-0.33000000000001606</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>-1.0412500000000011</v>
+        <v>-4.1250000000002007E-2</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7485,18 +7540,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -7511,7 +7566,7 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>1.9375</v>
+        <v>2.0625</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
@@ -8796,20 +8851,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -8868,40 +8923,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <v>8</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -8913,18 +8968,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -9072,18 +9127,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -9149,10 +9204,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="52"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="14">
         <v>0.75</v>
       </c>
@@ -9172,18 +9227,18 @@
         <v>9.375E-2</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="14">
         <v>0.83</v>
       </c>
@@ -9211,10 +9266,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
@@ -9242,10 +9297,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="14">
         <v>1.25</v>
       </c>
@@ -9265,18 +9320,18 @@
         <v>0.15625</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14">
@@ -9304,10 +9359,10 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14">
@@ -9327,18 +9382,18 @@
         <v>0.19875000000000001</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14">
         <v>3.4</v>
@@ -9358,18 +9413,18 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -9390,10 +9445,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -9414,10 +9469,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -9438,10 +9493,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -9462,10 +9517,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -9486,10 +9541,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -9510,10 +9565,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="56"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -9534,12 +9589,12 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9547,17 +9602,18 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9570,18 +9626,17 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L10 C24:L96 C19:L21 A19:B19 C13:L13 C15:L16">
     <cfRule type="expression" dxfId="47" priority="37">
@@ -9773,20 +9828,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -9845,40 +9900,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <v>8</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -9890,18 +9945,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -10049,18 +10104,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10126,10 +10181,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10157,10 +10212,10 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14">
         <v>0.5</v>
@@ -10188,10 +10243,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
@@ -10219,10 +10274,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10250,10 +10305,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="23"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -10274,10 +10329,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -10298,10 +10353,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -10322,10 +10377,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="56"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -10351,6 +10406,15 @@
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -10365,15 +10429,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:L13 A18:L94">
     <cfRule type="expression" dxfId="12" priority="10">
@@ -10440,20 +10495,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -10512,40 +10567,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+      <c r="A3" s="44">
         <v>8</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="45" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="8"/>
@@ -10557,18 +10612,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -10717,18 +10772,18 @@
       <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10794,8 +10849,8 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10821,8 +10876,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -10848,8 +10903,8 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -10875,8 +10930,8 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10907,6 +10962,11 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -10921,11 +10981,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
     <cfRule type="expression" dxfId="4" priority="2">

--- a/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
+++ b/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>(hrs)</t>
-  </si>
-  <si>
-    <t>Terça
-20/09/2016</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -132,30 +128,6 @@
     <t>Alexandre</t>
   </si>
   <si>
-    <t>Quarta
-21/09/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-22/09/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-23/09/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-24/09/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-25/09/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-26/09/2016</t>
-  </si>
-  <si>
     <t>Terça
 27/09/2016</t>
   </si>
@@ -200,15 +172,6 @@
   </si>
   <si>
     <t>Estudo Modelo Espiral e Reuso</t>
-  </si>
-  <si>
-    <t>Criar Classe ListaAnimal</t>
-  </si>
-  <si>
-    <t>Integrar a classe ListaAnimal ao Menu Principal</t>
-  </si>
-  <si>
-    <t>Criar visualização da Lista de Animais</t>
   </si>
   <si>
     <t>Quarta
@@ -276,6 +239,40 @@
   </si>
   <si>
     <t>Criar classe Sessao</t>
+  </si>
+  <si>
+    <t>Quarta
+05/10/2016</t>
+  </si>
+  <si>
+    <t>Quinta
+06/10/2016</t>
+  </si>
+  <si>
+    <t>Sexta
+07/10/2016</t>
+  </si>
+  <si>
+    <t>Sábado
+08/10/2016</t>
+  </si>
+  <si>
+    <t>Domingo
+09/10/2016</t>
+  </si>
+  <si>
+    <t>Segunda
+10/10/2016</t>
+  </si>
+  <si>
+    <t>Terça
+11/10/2016</t>
+  </si>
+  <si>
+    <t>Integrar telaAdm ao menu</t>
+  </si>
+  <si>
+    <t>Criar controllerTelaAdm para tela</t>
   </si>
 </sst>
 </file>
@@ -644,14 +641,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,10 +665,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -689,13 +701,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,31 +717,129 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="261">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4420,35 +4527,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-20/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-21/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-22/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-23/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-24/09/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-25/09/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-26/09/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-27/09/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4553,35 +4660,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-20/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-21/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-22/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-23/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-24/09/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-25/09/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-26/09/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-27/09/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4599,25 +4706,25 @@
                   <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.77</c:v>
+                  <c:v>9.120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8299999999999992</c:v>
+                  <c:v>5.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.879999999999999</c:v>
+                  <c:v>2.330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.120000000000001</c:v>
+                  <c:v>-1.5099999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.120000000000001</c:v>
+                  <c:v>-6.379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.120000000000001</c:v>
+                  <c:v>-10.879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-16.12</c:v>
+                  <c:v>-15.329999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4691,6 +4798,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4781,6 +4889,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4825,6 +4934,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4931,35 +5041,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-27/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-28/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-29/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-30/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-01/10/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-02/10/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-03/10/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5064,35 +5174,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-27/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-28/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-29/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-30/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-01/10/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-02/10/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-03/10/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5202,6 +5312,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5292,6 +5403,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5336,6 +5448,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5432,35 +5545,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-27/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-28/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-29/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-30/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-01/10/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-02/10/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-03/10/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5565,35 +5678,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-27/09/2016</c:v>
+04/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-28/09/2016</c:v>
+05/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-29/09/2016</c:v>
+06/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-30/09/2016</c:v>
+07/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-01/10/2016</c:v>
+08/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-02/10/2016</c:v>
+09/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-03/10/2016</c:v>
+10/10/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-04/10/2016</c:v>
+11/10/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5611,25 +5724,25 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>10.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.55</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0500000000000007</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0500000000000007</c:v>
+                  <c:v>5.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0500000000000007</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0500000000000007</c:v>
+                  <c:v>0.29000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.94999999999999929</c:v>
+                  <c:v>-0.15999999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,6 +5816,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5793,6 +5907,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5837,6 +5952,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6204,6 +6320,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6294,6 +6411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6338,6 +6456,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6440,14 +6559,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>70650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>380250</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>94710</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85185</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6784,8 +6903,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048538"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6802,16 +6921,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6836,27 +6955,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -6880,9 +6999,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="30" t="s">
         <v>8</v>
       </c>
@@ -6895,8 +7014,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6918,26 +7037,28 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
-        <v>70</v>
+      <c r="A4" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="41">
         <f>SUM(D4:D6)</f>
         <v>3.5</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="40">
+      <c r="F4" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="44">
         <f>SUM(F4:F6)</f>
-        <v>0</v>
+        <v>2.9400000000000004</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>10</v>
@@ -6962,19 +7083,21 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="45"/>
       <c r="H5" s="21" t="s">
         <v>10</v>
       </c>
@@ -6998,20 +7121,22 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+    <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="26">
         <v>1.5</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="26">
+        <v>1.34</v>
+      </c>
+      <c r="G6" s="45"/>
       <c r="H6" s="21" t="s">
         <v>10</v>
       </c>
@@ -7035,20 +7160,24 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="29" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="21"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -7069,125 +7198,137 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>71</v>
+      <c r="A8" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="28">
         <v>3</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="37">
         <f>SUM(D8:D10)</f>
         <v>7.5</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="36">
+      <c r="F8" s="28">
+        <v>2.87</v>
+      </c>
+      <c r="G8" s="37">
         <f>SUM(F8:F10)</f>
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="29" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="28">
         <v>0.5</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="28">
+        <v>0.45</v>
+      </c>
+      <c r="G9" s="37"/>
       <c r="H9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="33" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="28">
         <v>4</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="37"/>
       <c r="H10" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>72</v>
+      <c r="A11" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="28">
         <v>0.5</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="37">
         <f>SUM(D11:D13)</f>
         <v>4.5</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="36">
+      <c r="F11" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="37">
         <f>SUM(F11:F13)</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="28">
         <v>2</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="28">
+        <v>1.25</v>
+      </c>
+      <c r="G12" s="37"/>
       <c r="H12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="33" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="28">
         <v>2</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="G13" s="37"/>
       <c r="H13" s="21" t="s">
         <v>10</v>
       </c>
@@ -7199,13 +7340,6 @@
     <row r="1048538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="G11:G13"/>
@@ -7216,14 +7350,21 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="expression" dxfId="252" priority="2">
+    <cfRule type="expression" dxfId="260" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="notContainsText" dxfId="251" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="259" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -7241,8 +7382,8 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7263,20 +7404,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -7335,41 +7476,41 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="L3" s="50" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>17</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -7380,18 +7521,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -7402,7 +7543,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
@@ -7458,7 +7599,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -7470,39 +7611,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>9.77</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>6.8299999999999992</v>
+        <v>5.3800000000000008</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>3.879999999999999</v>
+        <v>2.330000000000001</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>-2.120000000000001</v>
+        <v>-1.5099999999999989</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>-6.120000000000001</v>
+        <v>-6.379999999999999</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>-10.120000000000001</v>
+        <v>-10.879999999999999</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-16.12</v>
+        <v>-15.329999999999998</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>-0.33000000000001606</v>
+        <v>-3.5999999999999908</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>-4.1250000000002007E-2</v>
+        <v>-0.44999999999999885</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7535,23 +7676,23 @@
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -7562,7 +7703,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -7574,39 +7715,39 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>3.9</v>
+        <v>4.55</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>2.9400000000000004</v>
+        <v>3.74</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3.84</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>4.87</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4.45</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>32.620000000000005</v>
+        <v>31.830000000000002</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>4.0775000000000006</v>
+        <v>3.9787500000000002</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7618,7 +7759,7 @@
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="19">
         <f>'Danilo Burndown'!B9</f>
@@ -7674,7 +7815,7 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="19">
         <f>'Alexandre Burndown'!B9</f>
@@ -7686,39 +7827,39 @@
       </c>
       <c r="D11" s="14">
         <f>'Breno Burndown'!D9</f>
-        <v>0.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E11" s="14">
         <f>'Breno Burndown'!E9</f>
-        <v>0.45</v>
+        <v>1.25</v>
       </c>
       <c r="F11" s="14">
         <f>'Breno Burndown'!F9</f>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G11" s="14">
         <f>'Breno Burndown'!G9</f>
-        <v>4</v>
+        <v>1.84</v>
       </c>
       <c r="H11" s="14">
         <f>'Breno Burndown'!H9</f>
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="I11" s="14">
         <f>'Breno Burndown'!I9</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J11" s="14">
         <f>'Breno Burndown'!J9</f>
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="K11" s="14">
         <f>SUM(C11:J11)</f>
-        <v>12.45</v>
+        <v>11.66</v>
       </c>
       <c r="L11" s="14">
         <f>K11/A$3</f>
-        <v>1.5562499999999999</v>
+        <v>1.4575</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -7730,7 +7871,7 @@
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="20">
         <f>'Breno Burndown'!B9</f>
@@ -7810,1015 +7951,1015 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="250" priority="2">
+    <cfRule type="expression" dxfId="258" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="249" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="248" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="256" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="247" priority="5">
+    <cfRule type="expression" dxfId="255" priority="5">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="notContainsText" dxfId="246" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="254" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="245" priority="7">
+    <cfRule type="expression" dxfId="253" priority="7">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="244" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="243" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="251" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="242" priority="10">
+    <cfRule type="expression" dxfId="250" priority="10">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="241" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="240" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="248" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="239" priority="13">
+    <cfRule type="expression" dxfId="247" priority="13">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="238" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="237" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="245" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="236" priority="16">
+    <cfRule type="expression" dxfId="244" priority="16">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="235" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="234" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="242" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="233" priority="19">
+    <cfRule type="expression" dxfId="241" priority="19">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="232" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="231" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="239" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="230" priority="22">
+    <cfRule type="expression" dxfId="238" priority="22">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="229" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="228" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="236" priority="24" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="227" priority="25">
+    <cfRule type="expression" dxfId="235" priority="25">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="226" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="225" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="233" priority="27" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="224" priority="28">
+    <cfRule type="expression" dxfId="232" priority="28">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="223" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="222" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="230" priority="30" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="221" priority="31">
+    <cfRule type="expression" dxfId="229" priority="31">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="220" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="219" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="227" priority="33" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="218" priority="34">
+    <cfRule type="expression" dxfId="226" priority="34">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="217" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="216" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="224" priority="36" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="215" priority="37">
+    <cfRule type="expression" dxfId="223" priority="37">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="214" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="213" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="221" priority="39" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="212" priority="40">
+    <cfRule type="expression" dxfId="220" priority="40">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="211" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="210" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="218" priority="42" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="209" priority="43">
+    <cfRule type="expression" dxfId="217" priority="43">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="208" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="207" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="215" priority="45" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="206" priority="46">
+    <cfRule type="expression" dxfId="214" priority="46">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="205" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="204" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="212" priority="48" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="203" priority="49">
+    <cfRule type="expression" dxfId="211" priority="49">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="202" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="201" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="209" priority="51" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="200" priority="52">
+    <cfRule type="expression" dxfId="208" priority="52">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="199" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="198" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="206" priority="54" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="197" priority="55">
+    <cfRule type="expression" dxfId="205" priority="55">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="196" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="195" priority="57" operator="notEqual">
+    <cfRule type="cellIs" dxfId="203" priority="57" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="194" priority="58">
+    <cfRule type="expression" dxfId="202" priority="58">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="193" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="192" priority="60" operator="notEqual">
+    <cfRule type="cellIs" dxfId="200" priority="60" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="191" priority="61">
+    <cfRule type="expression" dxfId="199" priority="61">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="190" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="189" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="197" priority="63" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="expression" dxfId="188" priority="64">
+    <cfRule type="expression" dxfId="196" priority="64">
       <formula>LEN(TRIM(L12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="187" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="186" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="194" priority="66" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="185" priority="67">
+    <cfRule type="expression" dxfId="193" priority="67">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="184" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="183" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="191" priority="69" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="182" priority="70">
+    <cfRule type="expression" dxfId="190" priority="70">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="181" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="180" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="188" priority="72" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="179" priority="73">
+    <cfRule type="expression" dxfId="187" priority="73">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="178" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="177" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="185" priority="75" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="176" priority="76">
+    <cfRule type="expression" dxfId="184" priority="76">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="175" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="174" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="182" priority="78" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="173" priority="79">
+    <cfRule type="expression" dxfId="181" priority="79">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="172" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="171" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="179" priority="81" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="170" priority="82">
+    <cfRule type="expression" dxfId="178" priority="82">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="169" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="168" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="176" priority="84" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="167" priority="85">
+    <cfRule type="expression" dxfId="175" priority="85">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="166" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="165" priority="87" operator="notEqual">
+    <cfRule type="cellIs" dxfId="173" priority="87" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="164" priority="88">
+    <cfRule type="expression" dxfId="172" priority="88">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="163" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="162" priority="90" operator="notEqual">
+    <cfRule type="cellIs" dxfId="170" priority="90" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="161" priority="91">
+    <cfRule type="expression" dxfId="169" priority="91">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="160" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="159" priority="93" operator="notEqual">
+    <cfRule type="cellIs" dxfId="167" priority="93" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="158" priority="94">
+    <cfRule type="expression" dxfId="166" priority="94">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="157" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="156" priority="96" operator="notEqual">
+    <cfRule type="cellIs" dxfId="164" priority="96" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="155" priority="97">
+    <cfRule type="expression" dxfId="163" priority="97">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="154" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="153" priority="99" operator="notEqual">
+    <cfRule type="cellIs" dxfId="161" priority="99" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="152" priority="100">
+    <cfRule type="expression" dxfId="160" priority="100">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="151" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="150" priority="102" operator="notEqual">
+    <cfRule type="cellIs" dxfId="158" priority="102" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="149" priority="103">
+    <cfRule type="expression" dxfId="157" priority="103">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="148" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="147" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="155" priority="105" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="146" priority="106">
+    <cfRule type="expression" dxfId="154" priority="106">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="145" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="144" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="152" priority="108" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="143" priority="109">
+    <cfRule type="expression" dxfId="151" priority="109">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="142" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="110" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="141" priority="111" operator="notEqual">
+    <cfRule type="cellIs" dxfId="149" priority="111" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="140" priority="112">
+    <cfRule type="expression" dxfId="148" priority="112">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="139" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="138" priority="114" operator="notEqual">
+    <cfRule type="cellIs" dxfId="146" priority="114" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="137" priority="115">
+    <cfRule type="expression" dxfId="145" priority="115">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="136" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="135" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="117" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="134" priority="118">
+    <cfRule type="expression" dxfId="142" priority="118">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="133" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="132" priority="120" operator="notEqual">
+    <cfRule type="cellIs" dxfId="140" priority="120" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="131" priority="121">
+    <cfRule type="expression" dxfId="139" priority="121">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="130" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="122" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="129" priority="123" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="123" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="128" priority="124">
+    <cfRule type="expression" dxfId="136" priority="124">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="127" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="126" priority="126" operator="notEqual">
+    <cfRule type="cellIs" dxfId="134" priority="126" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="125" priority="127">
+    <cfRule type="expression" dxfId="133" priority="127">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="notEqual">
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="122" priority="130">
+    <cfRule type="expression" dxfId="130" priority="130">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="120" priority="132" operator="notEqual">
+    <cfRule type="cellIs" dxfId="128" priority="132" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="119" priority="133">
+    <cfRule type="expression" dxfId="127" priority="133">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="118" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="117" priority="135" operator="notEqual">
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="116" priority="136">
+    <cfRule type="expression" dxfId="124" priority="136">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="115" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="137" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="114" priority="138" operator="notEqual">
+    <cfRule type="cellIs" dxfId="122" priority="138" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="113" priority="139">
+    <cfRule type="expression" dxfId="121" priority="139">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="111" priority="141" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="141" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="110" priority="142">
+    <cfRule type="expression" dxfId="118" priority="142">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="108" priority="144" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="144" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="107" priority="145">
+    <cfRule type="expression" dxfId="115" priority="145">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="106" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="105" priority="147" operator="notEqual">
+    <cfRule type="cellIs" dxfId="113" priority="147" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="104" priority="148">
+    <cfRule type="expression" dxfId="112" priority="148">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="103" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="102" priority="150" operator="notEqual">
+    <cfRule type="cellIs" dxfId="110" priority="150" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="101" priority="151">
+    <cfRule type="expression" dxfId="109" priority="151">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="100" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="152" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="99" priority="153" operator="notEqual">
+    <cfRule type="cellIs" dxfId="107" priority="153" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="98" priority="154">
+    <cfRule type="expression" dxfId="106" priority="154">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="97" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="96" priority="156" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="156" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="95" priority="157">
+    <cfRule type="expression" dxfId="103" priority="157">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="94" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="158" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="93" priority="159" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="159" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="92" priority="160">
+    <cfRule type="expression" dxfId="100" priority="160">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="91" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="161" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="90" priority="162" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="162" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="89" priority="163">
+    <cfRule type="expression" dxfId="97" priority="163">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="88" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="87" priority="165" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="165" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="86" priority="166">
+    <cfRule type="expression" dxfId="94" priority="166">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="85" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="84" priority="168" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="168" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="83" priority="169">
+    <cfRule type="expression" dxfId="91" priority="169">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="82" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="170" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="81" priority="171" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="171" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="80" priority="172">
+    <cfRule type="expression" dxfId="88" priority="172">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="79" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="78" priority="174" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="174" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="77" priority="175">
+    <cfRule type="expression" dxfId="85" priority="175">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="76" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="75" priority="177" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="177" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="74" priority="178">
+    <cfRule type="expression" dxfId="82" priority="178">
       <formula>LEN(TRIM(F12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="73" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="72" priority="180" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="180" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="71" priority="181">
+    <cfRule type="expression" dxfId="79" priority="181">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="70" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="69" priority="183" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="183" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="68" priority="184">
+    <cfRule type="expression" dxfId="76" priority="184">
       <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="67" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="66" priority="186" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="186" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="65" priority="187">
+    <cfRule type="expression" dxfId="73" priority="187">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="64" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="63" priority="189" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="189" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="62" priority="190">
+    <cfRule type="expression" dxfId="70" priority="190">
       <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="61" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="60" priority="192" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="192" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="59" priority="193">
+    <cfRule type="expression" dxfId="67" priority="193">
       <formula>LEN(TRIM(I12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="58" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="57" priority="195" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="195" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="56" priority="196">
+    <cfRule type="expression" dxfId="64" priority="196">
       <formula>LEN(TRIM(I12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="55" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="54" priority="198" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="198" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="53" priority="199">
+    <cfRule type="expression" dxfId="61" priority="199">
       <formula>LEN(TRIM(J12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="52" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="51" priority="201" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="201" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="50" priority="202">
+    <cfRule type="expression" dxfId="58" priority="202">
       <formula>LEN(TRIM(J12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="49" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="48" priority="204" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="204" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8835,9 +8976,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8851,20 +8992,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -8923,41 +9064,41 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="C3" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="50" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>17</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -8968,18 +9109,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -8990,7 +9131,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <v>21.8</v>
@@ -9045,7 +9186,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -9125,20 +9266,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -9149,7 +9290,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -9204,10 +9345,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="54"/>
+      <c r="A10" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="58"/>
       <c r="C10" s="14">
         <v>0.75</v>
       </c>
@@ -9227,18 +9368,18 @@
         <v>9.375E-2</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="49"/>
+      <c r="A11" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="54"/>
       <c r="C11" s="14">
         <v>0.83</v>
       </c>
@@ -9266,10 +9407,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="49"/>
+      <c r="A12" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="54"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14">
@@ -9297,10 +9438,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="49"/>
+      <c r="A13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="54"/>
       <c r="C13" s="14">
         <v>1.25</v>
       </c>
@@ -9320,18 +9461,18 @@
         <v>0.15625</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="49"/>
+      <c r="A14" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="54"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14">
@@ -9359,10 +9500,10 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="49"/>
+      <c r="A15" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="54"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14">
@@ -9382,18 +9523,18 @@
         <v>0.19875000000000001</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="51"/>
+      <c r="A16" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="62"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14">
         <v>3.4</v>
@@ -9413,18 +9554,18 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="54"/>
+      <c r="A17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="58"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -9445,10 +9586,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="49"/>
+      <c r="A18" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="54"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -9469,10 +9610,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="49"/>
+      <c r="A19" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="54"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -9493,10 +9634,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="52"/>
+      <c r="A20" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="60"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -9517,10 +9658,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="49"/>
+      <c r="A21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="54"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -9541,10 +9682,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="49"/>
+      <c r="A22" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="54"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -9565,10 +9706,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="51"/>
+      <c r="A23" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -9589,12 +9730,12 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9602,6 +9743,29 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="K3:K4"/>
@@ -9614,190 +9778,167 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L10 C24:L96 C19:L21 A19:B19 C13:L13 C15:L16">
-    <cfRule type="expression" dxfId="47" priority="37">
+    <cfRule type="expression" dxfId="55" priority="37">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L10 C24:L96 C19:L21 C13:L13 C15:L16">
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L10 C24:L96 C19:L21 C13:L13 C15:L16">
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B96 A10:B10 A13:B13 A15:B16">
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="52" priority="40">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B96 A19:B19 A10:B10 A13:B13 A15:B16">
-    <cfRule type="notContainsText" dxfId="43" priority="41" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="51" priority="41" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:O16">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="50" priority="42">
       <formula>LEN(TRIM(N10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:O16">
-    <cfRule type="notContainsText" dxfId="41" priority="43" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="49" priority="43" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:L18">
-    <cfRule type="expression" dxfId="40" priority="31">
+    <cfRule type="expression" dxfId="48" priority="31">
       <formula>LEN(TRIM(C17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:L18">
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:L18">
-    <cfRule type="cellIs" dxfId="38" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="46" priority="33" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="45" priority="34">
       <formula>LEN(TRIM(A17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="notContainsText" dxfId="36" priority="35" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="44" priority="35" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:L22">
-    <cfRule type="expression" dxfId="35" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>LEN(TRIM(C22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:L22">
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:L22">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B23">
-    <cfRule type="expression" dxfId="32" priority="19">
+    <cfRule type="expression" dxfId="40" priority="19">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B23">
-    <cfRule type="notContainsText" dxfId="31" priority="20" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="39" priority="20" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:L23">
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="38" priority="16">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:L23">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:L23">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:L12">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:L12">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:L12">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>LEN(TRIM(A12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:B12">
-    <cfRule type="notContainsText" dxfId="23" priority="15" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="31" priority="15" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:L11">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:L11">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:L11">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>LEN(TRIM(A11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="notContainsText" dxfId="18" priority="10" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="26" priority="10" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:L14">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>LEN(TRIM(C14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:L14">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:L14">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>LEN(TRIM(A14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="notContainsText" dxfId="13" priority="5" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="21" priority="5" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9813,8 +9954,8 @@
   <dimension ref="A1:S1048574"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:B17"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9828,20 +9969,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -9900,41 +10041,41 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="C3" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="50" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>17</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -9945,18 +10086,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -9967,7 +10108,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <v>11.5</v>
@@ -10022,7 +10163,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -10034,39 +10175,39 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10.35</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>10.55</v>
+        <v>9.1</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>9.0500000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>5.0500000000000007</v>
+        <v>5.66</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>3.0500000000000007</v>
+        <v>2.79</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>1.0500000000000007</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-0.94999999999999929</v>
+        <v>-0.15999999999999998</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>50.299999999999983</v>
+        <v>47.03</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>6.2874999999999979</v>
+        <v>5.8787500000000001</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -10102,20 +10243,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10126,7 +10267,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -10138,39 +10279,39 @@
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>1.25</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1.84</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>12.45</v>
+        <v>11.66</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="3"/>
-        <v>1.5562499999999999</v>
+        <v>1.4575</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -10181,27 +10322,27 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="52"/>
+      <c r="A10" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="60"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14">
-        <v>2</v>
-      </c>
+      <c r="F10" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14">
         <f t="shared" ref="K10:K17" si="4">SUM(C10:J10)</f>
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" ref="L10:L17" si="5">K10/A$3</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -10212,27 +10353,27 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="49"/>
+      <c r="A11" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="54"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="14">
+        <v>1.2</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="5"/>
-        <v>6.25E-2</v>
+        <v>0.15</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -10243,27 +10384,27 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="49"/>
+      <c r="A12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="54"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14">
-        <v>0.45</v>
-      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14">
+        <v>1.34</v>
+      </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14">
         <f t="shared" si="4"/>
-        <v>0.45</v>
+        <v>1.34</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="5"/>
-        <v>5.6250000000000001E-2</v>
+        <v>0.16750000000000001</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -10274,27 +10415,27 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="51"/>
+      <c r="A13" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="62"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="5"/>
-        <v>0.1875</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -10305,58 +10446,58 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="52"/>
+      <c r="A14" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="60"/>
       <c r="C14" s="23"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>2.87</v>
+      </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2.87</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.35875000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="49"/>
+      <c r="A15" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="54"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <v>2</v>
-      </c>
+      <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="J15" s="14">
+        <v>0.45</v>
+      </c>
       <c r="K15" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="49"/>
+      <c r="A16" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="54"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -10364,40 +10505,88 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="51"/>
+      <c r="A17" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="62"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14">
+        <v>0.2</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="14">
-        <v>2</v>
-      </c>
+      <c r="J17" s="14"/>
       <c r="K17" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18:K19" si="6">SUM(C18:J18)</f>
+        <v>1.25</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" ref="L18:L19" si="7">K18/A$3</f>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="7"/>
+        <v>0.11874999999999999</v>
       </c>
     </row>
     <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10405,16 +10594,9 @@
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="25">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -10429,42 +10611,87 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10:L13 A18:L94">
-    <cfRule type="expression" dxfId="12" priority="10">
+  <conditionalFormatting sqref="A10:L13 A20:L94">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13 C28:L94 C23:F27 H23:L27 C18:L22">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:L13 C28:L94 C23:F27 H23:L27 C18:L22">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:B13 A18:B94 G23:G27">
-    <cfRule type="notContainsText" dxfId="9" priority="14" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="C10:L13 C28:L94 C23:F27 H23:L27 C20:L22">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:L13 C28:L94 C23:F27 H23:L27 C20:L22">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:B13 A20:B94 G23:G27">
+    <cfRule type="notContainsText" dxfId="17" priority="22" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:L17">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>LEN(TRIM(A14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:L17">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:L17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B17">
-    <cfRule type="notContainsText" dxfId="5" priority="8" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="13" priority="16" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:L18">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>LEN(TRIM(A18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:L18">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:L18">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B18">
+    <cfRule type="notContainsText" dxfId="4" priority="8" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:L19">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>LEN(TRIM(A19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:L19">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:L19">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19">
+    <cfRule type="notContainsText" dxfId="0" priority="4" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10495,20 +10722,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -10567,41 +10794,41 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+      <c r="A3" s="49">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45" t="s">
+      <c r="C3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="50" t="s">
         <v>16</v>
-      </c>
-      <c r="L3" s="45" t="s">
-        <v>17</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -10612,18 +10839,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -10634,7 +10861,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <f>SUMIF('Sprint Backlog'!C:C,"=Cicrano",'Sprint Backlog'!D:D)</f>
@@ -10690,7 +10917,7 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13">
         <f>B5</f>
@@ -10770,20 +10997,20 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -10794,7 +11021,7 @@
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
@@ -10849,8 +11076,8 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10876,8 +11103,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -10903,8 +11130,8 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -10930,8 +11157,8 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10962,11 +11189,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -10981,29 +11203,34 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="notContainsText" dxfId="0" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="8" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
+++ b/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao6\Sprint-4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Breno Burndown" sheetId="4" r:id="rId5"/>
     <sheet name="Alexandre Burndown" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -130,48 +125,6 @@
   <si>
     <t>Terça
 27/09/2016</t>
-  </si>
-  <si>
-    <t>Criação da Classe Candidato</t>
-  </si>
-  <si>
-    <t>Criação Classe Endereço</t>
-  </si>
-  <si>
-    <t>Criação Classe ControllerCandidato</t>
-  </si>
-  <si>
-    <t>Atualização BancoDeDados</t>
-  </si>
-  <si>
-    <t>Tratar Eventos dos Botões do Menu e CadastroCandidato</t>
-  </si>
-  <si>
-    <t>Tratar Eventos dos Campos do CadastroCandidato</t>
-  </si>
-  <si>
-    <t>Criar Formulário de Cadastro</t>
-  </si>
-  <si>
-    <t>Implementar Máscaras nos Campos</t>
-  </si>
-  <si>
-    <t>Armazenar dados do CadastroCandidato no BD</t>
-  </si>
-  <si>
-    <t>Estudo do Modelo de Cascata</t>
-  </si>
-  <si>
-    <t>Estudo Prototipação e Incremental</t>
-  </si>
-  <si>
-    <t>Estudo Modelo RUP</t>
-  </si>
-  <si>
-    <t>Estudo Engenharia de Requisitos</t>
-  </si>
-  <si>
-    <t>Estudo Modelo Espiral e Reuso</t>
   </si>
   <si>
     <t>Quarta
@@ -274,11 +227,47 @@
   <si>
     <t>Criar controllerTelaAdm para tela</t>
   </si>
+  <si>
+    <t>O sistema deverá abrir apenas uma Janela Principal, e os cadastros e visualizações serão definidas como JInternalFrame para que todo o espaço seja aproveitado.</t>
+  </si>
+  <si>
+    <t>Estudar e Implementar a Biblioteca JInternalFrame</t>
+  </si>
+  <si>
+    <t>Atualizar Eventos de Chamada das telas</t>
+  </si>
+  <si>
+    <t>Atualizar Telas para JInternalFrame</t>
+  </si>
+  <si>
+    <t>O Sistema vai possuir uma opção de alteração na TelaPrincipal, com acesso a alteração dos dados dos animais</t>
+  </si>
+  <si>
+    <t>Desejo que todos os candidatos cadastrados no sistema, sejam visualizados em um lista.</t>
+  </si>
+  <si>
+    <t>Tratar o Evento de Alteração de Dados</t>
+  </si>
+  <si>
+    <t>Busca e Visualização de Dados</t>
+  </si>
+  <si>
+    <t>Salvar Alterações no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Busca dos Dados no BD</t>
+  </si>
+  <si>
+    <t>Tratar os Dados que Serão Visualizados</t>
+  </si>
+  <si>
+    <t>Criar Classe ListaCandidatos e Definir a Visualização em Lista</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
@@ -641,13 +630,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,10 +690,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,12 +709,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,6 +733,19 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -805,19 +807,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -4448,7 +4437,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4511,7 +4500,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4567,28 +4556,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>16.5</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4375</c:v>
+                  <c:v>24.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.375</c:v>
+                  <c:v>21.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3125</c:v>
+                  <c:v>17.8125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.25</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1875</c:v>
+                  <c:v>10.6875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.125</c:v>
+                  <c:v>7.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0625</c:v>
+                  <c:v>3.5625</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4597,7 +4586,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B25F-4BA6-B823-6B646DCDECAB}"/>
             </c:ext>
@@ -4644,7 +4633,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -4700,37 +4689,37 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>16.5</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.67</c:v>
+                  <c:v>26.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.120000000000001</c:v>
+                  <c:v>23.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3800000000000008</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.330000000000001</c:v>
+                  <c:v>18.990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5099999999999989</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.379999999999999</c:v>
+                  <c:v>11.530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-10.879999999999999</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-15.329999999999998</c:v>
+                  <c:v>6.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B25F-4BA6-B823-6B646DCDECAB}"/>
             </c:ext>
@@ -4751,12 +4740,13 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1696427024"/>
-        <c:axId val="1696425392"/>
+        <c:axId val="94407296"/>
+        <c:axId val="94413568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1696427024"/>
+        <c:axId val="94407296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4830,7 +4820,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696425392"/>
+        <c:crossAx val="94413568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4838,7 +4828,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696425392"/>
+        <c:axId val="94413568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4921,7 +4911,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696427024"/>
+        <c:crossAx val="94407296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4962,7 +4952,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5025,7 +5015,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5081,28 +5071,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>21.8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.074999999999999</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.349999999999998</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.624999999999998</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.899999999999999</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1749999999999989</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4499999999999993</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7249999999999992</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5111,7 +5101,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-38B3-4059-8152-72407AF7869D}"/>
             </c:ext>
@@ -5158,7 +5148,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5214,37 +5204,37 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>21.8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.97</c:v>
+                  <c:v>10.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.569999999999999</c:v>
+                  <c:v>8.5499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.079999999999998</c:v>
+                  <c:v>8.1499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.629999999999999</c:v>
+                  <c:v>6.4899999999999984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.629999999999999</c:v>
+                  <c:v>4.6399999999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.629999999999999</c:v>
+                  <c:v>3.7399999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.629999999999999</c:v>
+                  <c:v>2.8699999999999988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.629999999999999</c:v>
+                  <c:v>1.7399999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38B3-4059-8152-72407AF7869D}"/>
             </c:ext>
@@ -5265,12 +5255,13 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1696430832"/>
-        <c:axId val="1696431376"/>
+        <c:axId val="94556160"/>
+        <c:axId val="94558080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1696430832"/>
+        <c:axId val="94556160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5344,7 +5335,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696431376"/>
+        <c:crossAx val="94558080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5352,7 +5343,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696431376"/>
+        <c:axId val="94558080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5435,7 +5426,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696430832"/>
+        <c:crossAx val="94556160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5476,7 +5467,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -5529,7 +5520,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5615,7 +5606,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7027-4089-A471-E33CFB343F03}"/>
             </c:ext>
@@ -5662,7 +5653,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -5748,7 +5739,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7027-4089-A471-E33CFB343F03}"/>
             </c:ext>
@@ -5769,12 +5760,13 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1696431920"/>
-        <c:axId val="1696433008"/>
+        <c:axId val="92738688"/>
+        <c:axId val="92740608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1696431920"/>
+        <c:axId val="92738688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,7 +5840,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696433008"/>
+        <c:crossAx val="92740608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5856,7 +5848,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1696433008"/>
+        <c:axId val="92740608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5939,7 +5931,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696431920"/>
+        <c:crossAx val="92738688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5980,7 +5972,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -6033,7 +6025,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -6119,7 +6111,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-52E3-40F9-BCD1-53B9BF061B4D}"/>
             </c:ext>
@@ -6166,7 +6158,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -6252,7 +6244,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-52E3-40F9-BCD1-53B9BF061B4D}"/>
             </c:ext>
@@ -6273,12 +6265,13 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1563268800"/>
-        <c:axId val="1563275328"/>
+        <c:axId val="92825472"/>
+        <c:axId val="92848128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1563268800"/>
+        <c:axId val="92825472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6352,7 +6345,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1563275328"/>
+        <c:crossAx val="92848128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6360,7 +6353,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1563275328"/>
+        <c:axId val="92848128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6443,7 +6436,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1563268800"/>
+        <c:crossAx val="92825472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6529,7 +6522,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>283993</xdr:colOff>
+      <xdr:colOff>104076</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>17988</xdr:rowOff>
     </xdr:to>
@@ -6666,7 +6659,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6701,7 +6694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6878,7 +6871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6903,8 +6896,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048538"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6921,16 +6914,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -6955,27 +6948,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="37">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -6999,9 +6992,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="30" t="s">
         <v>8</v>
       </c>
@@ -7014,8 +7007,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -7038,10 +7031,10 @@
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -7085,7 +7078,7 @@
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -7124,7 +7117,7 @@
     <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -7162,7 +7155,7 @@
     <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="29" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>24</v>
@@ -7198,11 +7191,11 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>61</v>
+      <c r="A8" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>24</v>
@@ -7210,14 +7203,14 @@
       <c r="D8" s="28">
         <v>3</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <f>SUM(D8:D10)</f>
         <v>7.5</v>
       </c>
       <c r="F8" s="28">
         <v>2.87</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <f>SUM(F8:F10)</f>
         <v>5.82</v>
       </c>
@@ -7226,9 +7219,9 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="29" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>24</v>
@@ -7236,19 +7229,19 @@
       <c r="D9" s="28">
         <v>0.5</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="28">
         <v>0.45</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="33" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>24</v>
@@ -7256,21 +7249,21 @@
       <c r="D10" s="28">
         <v>4</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="28">
         <v>2.5</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>62</v>
+      <c r="A11" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>24</v>
@@ -7278,14 +7271,14 @@
       <c r="D11" s="28">
         <v>0.5</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <f>SUM(D11:D13)</f>
         <v>4.5</v>
       </c>
       <c r="F11" s="28">
         <v>0.2</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <f>SUM(F11:F13)</f>
         <v>2.4</v>
       </c>
@@ -7294,9 +7287,9 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="29" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>24</v>
@@ -7304,19 +7297,19 @@
       <c r="D12" s="28">
         <v>2</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="28">
         <v>1.25</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="33" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>24</v>
@@ -7324,12 +7317,216 @@
       <c r="D13" s="28">
         <v>2</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="28">
         <v>0.95</v>
       </c>
-      <c r="G13" s="37"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <f>SUM(D14:D16)</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="G14" s="36">
+        <f>SUM(F14:F16)</f>
+        <v>3.45</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="28">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="28">
+        <v>1.72</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="36">
+        <f>SUM(D17:D19)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="36">
+        <f>SUM(F17:F19)</f>
+        <v>3.91</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="28">
+        <v>2</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="28">
+        <v>1.66</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="28">
+        <v>2</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="28">
+        <v>1.85</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36">
+        <f>SUM(D20:D22)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="G20" s="36">
+        <f>SUM(F20:F22)</f>
+        <v>2.92</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="28">
+        <v>0.87</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="28">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7339,7 +7536,23 @@
     <row r="1048537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="G11:G13"/>
@@ -7350,13 +7563,6 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
     <cfRule type="expression" dxfId="260" priority="2">
@@ -7483,28 +7689,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="51" t="s">
-        <v>67</v>
-      </c>
       <c r="E3" s="51" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K3" s="50" t="s">
         <v>15</v>
@@ -7547,35 +7753,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>16.5</v>
+        <v>28.5</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>14.4375</v>
+        <v>24.9375</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>12.375</v>
+        <v>21.375</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>10.3125</v>
+        <v>17.8125</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>8.25</v>
+        <v>14.25</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>6.1875</v>
+        <v>10.6875</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>4.125</v>
+        <v>7.125</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>2.0625</v>
+        <v>3.5625</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -7583,11 +7789,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>57.75</v>
+        <v>99.75</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>7.21875</v>
+        <v>12.46875</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7603,47 +7809,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>16.5</v>
+        <v>28.5</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>13.67</v>
+        <v>26.77</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>9.120000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>5.3800000000000008</v>
+        <v>22.25</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>2.330000000000001</v>
+        <v>18.990000000000002</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>-1.5099999999999989</v>
+        <v>15.3</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>-6.379999999999999</v>
+        <v>11.530000000000001</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>-10.879999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-15.329999999999998</v>
+        <v>6.58</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>-3.5999999999999908</v>
+        <v>133.47999999999999</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>-0.44999999999999885</v>
+        <v>16.684999999999999</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7707,47 +7913,47 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>2.0625</v>
+        <v>3.5625</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C12)</f>
-        <v>2.83</v>
+        <v>1.73</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>4.55</v>
+        <v>2.87</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>3.74</v>
+        <v>1.65</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>3.84</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>4.87</v>
+        <v>3.77</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>3.37</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>4.45</v>
+        <v>1.5799999999999998</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>31.830000000000002</v>
+        <v>21.919999999999998</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>3.9787500000000002</v>
+        <v>2.7399999999999998</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7763,47 +7969,47 @@
       </c>
       <c r="B10" s="19">
         <f>'Danilo Burndown'!B9</f>
-        <v>2.7250000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="14">
         <f>'Danilo Burndown'!C9</f>
-        <v>2.83</v>
+        <v>1.73</v>
       </c>
       <c r="D10" s="14">
         <f>'Danilo Burndown'!D9</f>
-        <v>3.4</v>
+        <v>1.72</v>
       </c>
       <c r="E10" s="14">
         <f>'Danilo Burndown'!E9</f>
-        <v>2.4900000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F10" s="14">
         <f>'Danilo Burndown'!F9</f>
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="G10" s="14">
         <f>'Danilo Burndown'!G9</f>
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H10" s="14">
         <f>'Danilo Burndown'!H9</f>
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="I10" s="14">
         <f>'Danilo Burndown'!I9</f>
-        <v>2</v>
+        <v>0.87</v>
       </c>
       <c r="J10" s="14">
         <f>'Danilo Burndown'!J9</f>
-        <v>4</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K10" s="14">
         <f>SUM(C10:J10)</f>
-        <v>20.170000000000002</v>
+        <v>10.259999999999998</v>
       </c>
       <c r="L10" s="14">
         <f>K10/A$3</f>
-        <v>2.5212500000000002</v>
+        <v>1.2824999999999998</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -8976,15 +9182,15 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.7109375"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="10" width="12.7109375"/>
     <col min="11" max="11" width="8.28515625"/>
     <col min="12" max="12" width="8"/>
@@ -9070,29 +9276,29 @@
       <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>73</v>
+      <c r="E3" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="K3" s="50" t="s">
         <v>15</v>
@@ -9111,14 +9317,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
       <c r="M4" s="8"/>
@@ -9134,35 +9340,35 @@
         <v>17</v>
       </c>
       <c r="B5" s="13">
-        <v>21.8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>19.074999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>16.349999999999998</v>
+        <v>9</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>13.624999999999998</v>
+        <v>7.5</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>10.899999999999999</v>
+        <v>6</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>8.1749999999999989</v>
+        <v>4.5</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>5.4499999999999993</v>
+        <v>3</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>2.7249999999999992</v>
+        <v>1.5</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -9170,11 +9376,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>76.3</v>
+        <v>42</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>9.5374999999999996</v>
+        <v>5.25</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -9190,47 +9396,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>21.8</v>
+        <v>12</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>18.97</v>
+        <v>10.27</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>15.569999999999999</v>
+        <v>8.5499999999999989</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>13.079999999999998</v>
+        <v>8.1499999999999986</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>11.629999999999999</v>
+        <v>6.4899999999999984</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>9.629999999999999</v>
+        <v>4.6399999999999988</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>7.629999999999999</v>
+        <v>3.7399999999999989</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>5.629999999999999</v>
+        <v>2.8699999999999988</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>1.629999999999999</v>
+        <v>1.7399999999999989</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>83.769999999999982</v>
+        <v>46.449999999999996</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>10.471249999999998</v>
+        <v>5.8062499999999995</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -9294,47 +9500,47 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>2.7250000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:E9" si="3">SUM(C10:C16)</f>
-        <v>2.83</v>
+        <v>1.73</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>3.4</v>
+        <v>1.72</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>2.4900000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ref="F9:L9" si="4">SUM(F10:F23)</f>
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0.87</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="4"/>
-        <v>20.170000000000002</v>
+        <v>10.259999999999998</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="4"/>
-        <v>2.5212500000000002</v>
+        <v>1.2824999999999998</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -9345,12 +9551,12 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="58"/>
+      <c r="A10" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="59"/>
       <c r="C10" s="14">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -9361,15 +9567,15 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14">
         <f t="shared" ref="K10:K23" si="5">SUM(C10:J10)</f>
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" ref="L10:L23" si="6">K10/A$3</f>
-        <v>9.375E-2</v>
+        <v>0.10375</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -9377,11 +9583,11 @@
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="14">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -9392,11 +9598,11 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14">
         <f t="shared" si="5"/>
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="6"/>
-        <v>0.10375</v>
+        <v>0.1125</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="31"/>
@@ -9408,14 +9614,14 @@
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
-        <v>0.4</v>
-      </c>
+      <c r="D12" s="14">
+        <v>1.72</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -9423,11 +9629,11 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>1.72</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="6"/>
-        <v>0.05</v>
+        <v>0.215</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="31"/>
@@ -9439,14 +9645,14 @@
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B13" s="54"/>
-      <c r="C13" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <v>0.4</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -9454,15 +9660,15 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14">
         <f t="shared" si="5"/>
-        <v>1.25</v>
+        <v>0.4</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="6"/>
-        <v>0.15625</v>
+        <v>0.05</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -9470,26 +9676,26 @@
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>1.66</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1.66</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="6"/>
-        <v>6.25E-2</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="32"/>
@@ -9501,166 +9707,144 @@
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14">
-        <v>1.59</v>
-      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14">
+        <v>1.85</v>
+      </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14">
         <f t="shared" si="5"/>
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="6"/>
-        <v>0.19875000000000001</v>
+        <v>0.23125000000000001</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="62"/>
+      <c r="A16" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="56"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="14">
-        <v>3.4</v>
-      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14">
+        <v>0.9</v>
+      </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14">
         <f t="shared" si="5"/>
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="6"/>
-        <v>0.42499999999999999</v>
+        <v>0.1125</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="58"/>
+      <c r="A17" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="59"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14">
-        <v>0.7</v>
-      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="14">
+        <v>0.87</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14">
         <f t="shared" si="5"/>
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="6"/>
-        <v>8.7499999999999994E-2</v>
+        <v>0.10875</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B18" s="54"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="14">
-        <v>0.75</v>
-      </c>
+      <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="14">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="K18" s="14">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="6"/>
-        <v>9.375E-2</v>
+        <v>0.14124999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
-        <v>42</v>
-      </c>
+      <c r="A19" s="53"/>
       <c r="B19" s="54"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="14">
-        <v>2</v>
-      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="60"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="14">
-        <v>2</v>
-      </c>
+      <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L20" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
-        <v>44</v>
-      </c>
+      <c r="A21" s="53"/>
       <c r="B21" s="54"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -9668,23 +9852,13 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="14">
-        <v>2</v>
-      </c>
+      <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L21" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
-        <v>45</v>
-      </c>
+      <c r="A22" s="53"/>
       <c r="B22" s="54"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -9693,23 +9867,13 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <v>2</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="62"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -9717,25 +9881,17 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <v>2</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9743,17 +9899,18 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -9766,18 +9923,17 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L10 C24:L96 C19:L21 A19:B19 C13:L13 C15:L16">
     <cfRule type="expression" dxfId="55" priority="37">
@@ -9954,7 +10110,7 @@
   <dimension ref="A1:S1048574"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
@@ -10047,29 +10203,29 @@
       <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>73</v>
+      <c r="E3" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="K3" s="50" t="s">
         <v>15</v>
@@ -10088,14 +10244,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
       <c r="M4" s="8"/>
@@ -10322,10 +10478,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="60"/>
+      <c r="A10" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="57"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -10354,7 +10510,7 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B11" s="54"/>
       <c r="C11" s="14"/>
@@ -10385,7 +10541,7 @@
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="14"/>
@@ -10415,10 +10571,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="62"/>
+      <c r="A13" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="56"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10446,10 +10602,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="60"/>
+      <c r="A14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="57"/>
       <c r="C14" s="23"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -10471,7 +10627,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="14"/>
@@ -10495,7 +10651,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B16" s="54"/>
       <c r="C16" s="14"/>
@@ -10518,10 +10674,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="62"/>
+      <c r="A17" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="56"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14">
         <v>0.2</v>
@@ -10542,10 +10698,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="62"/>
+      <c r="A18" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="56"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14">
@@ -10566,10 +10722,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="62"/>
+      <c r="A19" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="56"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14">
         <v>0.95</v>
@@ -10595,6 +10751,15 @@
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:B1"/>
@@ -10611,15 +10776,6 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:L13 A20:L94">
     <cfRule type="expression" dxfId="20" priority="18">
@@ -10658,40 +10814,40 @@
     <cfRule type="notContainsText" dxfId="13" priority="16" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:L18">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>LEN(TRIM(A18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:L18">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:L18">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="notContainsText" dxfId="4" priority="8" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="9" priority="8" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:L19">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>LEN(TRIM(A19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:L19">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:L19">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="notContainsText" dxfId="0" priority="4" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="5" priority="4" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10800,29 +10956,29 @@
       <c r="B3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>53</v>
+      <c r="D3" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>39</v>
       </c>
       <c r="K3" s="50" t="s">
         <v>15</v>
@@ -10841,14 +10997,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
       <c r="M4" s="8"/>
@@ -11076,8 +11232,8 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -11103,8 +11259,8 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -11130,8 +11286,8 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -11157,8 +11313,8 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -11189,6 +11345,11 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
@@ -11203,34 +11364,29 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:L96">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>LEN(TRIM(A10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B96">
-    <cfRule type="notContainsText" dxfId="8" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="0" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
+++ b/Sprint-4/Sprint_4 Burndown-Backlog.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\PROJETO\adocao\Sprint-4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Breno Burndown" sheetId="4" r:id="rId5"/>
     <sheet name="Alexandre Burndown" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -255,13 +260,13 @@
     <t>Salvar Alterações no Banco de Dados</t>
   </si>
   <si>
-    <t>Busca dos Dados no BD</t>
+    <t>Criar Classe ListaCandidatos</t>
   </si>
   <si>
-    <t>Tratar os Dados que Serão Visualizados</t>
+    <t>Integrar Classe ListaCandidatos ao Menu Principal</t>
   </si>
   <si>
-    <t>Criar Classe ListaCandidatos e Definir a Visualização em Lista</t>
+    <t>Criar visualização da Lista de Candidatos</t>
   </si>
 </sst>
 </file>
@@ -4740,13 +4745,1024 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="94407296"/>
-        <c:axId val="94413568"/>
+        <c:axId val="65127120"/>
+        <c:axId val="65114064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94407296"/>
+        <c:axId val="65127120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65114064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65114064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65127120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9838867524018247E-2"/>
+          <c:y val="0.17968060710980285"/>
+          <c:w val="0.83835394009565944"/>
+          <c:h val="0.66541128663026161"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Danilo Burndown'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Danilo Burndown'!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+04/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+05/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+06/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+07/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+08/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+09/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+10/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+11/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Danilo Burndown'!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38B3-4059-8152-72407AF7869D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Danilo Burndown'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Danilo Burndown'!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+04/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+05/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+06/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+07/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+08/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+09/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+10/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+11/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Danilo Burndown'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4899999999999984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7399999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8699999999999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7399999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38B3-4059-8152-72407AF7869D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="65120592"/>
+        <c:axId val="65116784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65120592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>DIAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="222222"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65116784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65116784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>TEMPO EM HORAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47520">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65120592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Breno Burndown'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Breno Burndown'!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+04/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+05/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+06/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+07/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+08/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+09/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+10/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+11/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Breno Burndown'!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7027-4089-A471-E33CFB343F03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Breno Burndown'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Breno Burndown'!$B$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>(hrs)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Terça
+04/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quarta
+05/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quinta
+06/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sexta
+07/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sábado
+08/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Domingo
+09/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Segunda
+10/10/2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Terça
+11/10/2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Breno Burndown'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7027-4089-A471-E33CFB343F03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="275428608"/>
+        <c:axId val="275428064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="275428608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,7 +5836,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94413568"/>
+        <c:crossAx val="275428064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4828,7 +5844,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94413568"/>
+        <c:axId val="275428064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,1027 +5927,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94407296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.9838867524018247E-2"/>
-          <c:y val="0.17968060710980285"/>
-          <c:w val="0.83835394009565944"/>
-          <c:h val="0.66541128663026161"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Danilo Burndown'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Danilo Burndown'!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-04/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-05/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-06/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-07/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-08/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-09/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-10/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-11/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Danilo Burndown'!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-38B3-4059-8152-72407AF7869D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Danilo Burndown'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Danilo Burndown'!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-04/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-05/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-06/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-07/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-08/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-09/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-10/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-11/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Danilo Burndown'!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5499999999999989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1499999999999986</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4899999999999984</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6399999999999988</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7399999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8699999999999988</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7399999999999989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38B3-4059-8152-72407AF7869D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="94556160"/>
-        <c:axId val="94558080"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="94556160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="94558080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94558080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="94556160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Breno Burndown'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Breno Burndown'!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-04/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-05/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-06/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-07/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-08/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-09/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-10/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-11/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Breno Burndown'!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4375</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7027-4089-A471-E33CFB343F03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Breno Burndown'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Real</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25560">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Breno Burndown'!$B$3:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>(hrs)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Terça
-04/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Quarta
-05/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Quinta
-06/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sexta
-07/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sábado
-08/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Domingo
-09/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Segunda
-10/10/2016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Terça
-11/10/2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Breno Burndown'!$B$6:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.15999999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7027-4089-A471-E33CFB343F03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="92738688"/>
-        <c:axId val="92740608"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="92738688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>DIAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="222222"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92740608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="92740608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>TEMPO EM HORAS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47520">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92738688"/>
+        <c:crossAx val="275428608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6265,13 +6261,12 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92825472"/>
-        <c:axId val="92848128"/>
+        <c:axId val="275434048"/>
+        <c:axId val="275423712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92825472"/>
+        <c:axId val="275434048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6313,7 +6308,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6345,7 +6339,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92848128"/>
+        <c:crossAx val="275423712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6353,7 +6347,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92848128"/>
+        <c:axId val="275423712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6398,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -6436,7 +6429,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92825472"/>
+        <c:crossAx val="275434048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6449,7 +6442,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6871,7 +6863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6896,8 +6888,8 @@
   </sheetPr>
   <dimension ref="A1:AB1048538"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G22"/>
+    <sheetView windowProtection="1" showGridLines="0" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9182,9 +9174,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9566,11 +9558,11 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14">
-        <f t="shared" ref="K10:K23" si="5">SUM(C10:J10)</f>
+        <f t="shared" ref="K10:K18" si="5">SUM(C10:J10)</f>
         <v>0.83</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" ref="L10:L23" si="6">K10/A$3</f>
+        <f t="shared" ref="L10:L18" si="6">K10/A$3</f>
         <v>0.10375</v>
       </c>
       <c r="M10" s="8"/>
@@ -10109,7 +10101,7 @@
   </sheetPr>
   <dimension ref="A1:S1048574"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J3" sqref="J3:J4"/>
     </sheetView>
